--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_DDPCC.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_DDPCC.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="selection_rate_0.25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="selection_rate_0.5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -767,4 +768,354 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>95.54572271386431</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1201398745796723</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.955457227138643</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9551843867148566</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>94.51500445505584</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1945715896100921</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9451500445505584</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9424810231220728</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>96.19469026548673</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1263786093136635</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9619469026548673</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9611488425133746</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.67846607669617</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3201255205882869</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9067846607669617</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8991223554469199</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>90.08849557522123</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2390553603652127</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9008849557522124</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8999602044466425</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.65521328039169</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2372171740280464</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.926552132803917</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9149419695222798</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>90.73746312684366</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2641393720414877</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9073746312684365</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9049824809116448</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.61946902654867</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2690626342851222</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9061946902654867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9034990891121047</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>93.27433628318585</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2008005582596525</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9327433628318584</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9286559342532108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.85840707964601</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2512342650187748</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9185840707964601</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9163200079849296</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.3362831858407</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6344796347651027</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.843362831858407</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.83595053234501</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.57522123893804</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.634496383943527</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8557522123893806</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8379572008322317</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.75811209439527</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0652218165027231</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9775811209439528</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9775819526336212</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.79159854324</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0349016087533722</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9879159854324</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9879200406877912</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.95575221238938</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1439335246838103</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9495575221238939</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9453160286517482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>92.50561567718292</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2490505284492364</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9250561567718291</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9207348032785625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_DDPCC.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_DDPCC.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="selection_rate_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="selection_rate_0.75" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="selection_rate_0.5" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1118,4 +1119,354 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>94.48377581120944</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1530708550525257</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9448377581120944</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9439395864489775</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>93.19258817117796</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.214362011476381</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9319258817117795</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9301600291595482</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>96.19469026548673</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1429496320551455</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9619469026548673</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9598043779773709</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.50147492625368</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2891018899666961</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9050147492625369</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8995431288196037</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>89.05604719764013</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2728258330219736</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8905604719764012</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8828878580579447</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.21290841616278</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2378555128816515</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9221290841616276</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9088014237328246</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>92.00589970501474</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2301828666761745</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9200589970501476</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.919885810751549</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.20961253990086</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2645451095491201</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9120961253990088</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9101517994741506</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>92.65486725663717</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2204814958365508</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9265486725663716</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.924571118185218</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.18289085545723</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2109666457611941</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9218289085545722</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9197046747402476</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.98230088495575</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6020834445818763</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8398230088495575</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8332160531814472</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.04424778761062</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6369897317734285</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8504424778761062</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8351641275541493</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.905604719764</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.06364013408657078</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9790560471976402</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9790969976701067</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.88078616597029</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0326633750516218</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9888078616597029</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9888138881843617</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.98230088495575</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1767715334997623</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9398230088495575</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9296367834507947</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>92.23266637254646</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2498993380847115</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9223266637254647</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9176918438258863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_DDPCC.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_DDPCC.xlsx
@@ -10,6 +10,12 @@
     <sheet name="selection_rate_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="selection_rate_0.75" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="selection_rate_0.5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="selection_rate_0.4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="selection_rate_0.3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="selection_rate_0.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="selection_rate_0.2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="selection_rate_0.15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="selection_rate_0.1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1475,2104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.5693215339233</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1848107516911114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.935693215339233</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9324042133231375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>90.53875898580438</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2620822330284038</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9053875898580437</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9041500090289359</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.07374631268436</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1479339132975838</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9507374631268437</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9502945435851023</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.82300884955752</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2669588009788034</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8982300884955752</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8965450236461223</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.94985250737463</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4854897818203122</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8294985250737463</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8202359400627046</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.94724867862178</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2274019791744649</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.919472486786218</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.910718248532754</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>86.43569581051739</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4210143706673989</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.864356958105174</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8530515276017325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.14454277286136</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2942204979001569</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8914454277286137</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8894895019094253</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.73451327433628</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.306236761288892</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8973451327433628</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8941075513452883</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.68141592920354</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2261104264941726</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9168141592920354</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9153508946623411</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.04424778761062</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6322278055026496</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8504424778761062</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8432074614117143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.952802359882</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6738677694069338</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8395280235988201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8245743132427654</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.81120943952803</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1148871490090339</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9581120943952802</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9585605336605874</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.54884557824894</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1017567005051319</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9654884557824894</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9657833513297007</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.48377581120944</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.144825980882888</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9448377581120944</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9391184418604178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.44926570875758</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2993216614431958</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9044926570875759</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8998394370135152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>88.55751347329995</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2983585895601815</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8855751347329994</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8843369071272196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.39905189491257</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5491696060043372</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8039905189491259</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7987583509615284</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.97204128063392</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3584292633924633</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8797204128063392</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8774951737720491</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.40950181229941</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2971878563674787</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8840950181229941</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.881560355906554</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>73.95557054991825</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8801119567224911</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7395557054991826</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7209921652043711</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.91462728916341</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3202012548145527</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9091462728916341</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8974363952519024</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82.71438334241645</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5078873426265393</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8271438334241645</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8214640334382499</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>84.57469355271239</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3892763429476569</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.845746935527124</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8428194369401956</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.99115044247787</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3887627585014949</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8699115044247787</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8531979785657822</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>89.05622020951738</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3228069725510068</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8905622020951739</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8848429137051053</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.30418083201411</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.55941185354831</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8330418083201412</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8301651636881286</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.41783233418974</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6682661906195184</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8141783233418975</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8005843865310135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.91566536042698</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2727147165220231</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9091566536042699</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9093270714409026</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.62241887905604</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1841625381211391</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9162241887905604</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9161475527241126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.51622418879056</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1121691151742804</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9551622418879055</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9533827121379599</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.42140502945527</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4072610904982315</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8642140502945527</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8581673731596717</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>71.95676433187138</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7833339046075707</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7195676433187138</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7112443693316025</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.32059100857273</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.764973894879222</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7032059100857274</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6943278439358614</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>78.94843380998105</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5456051116809248</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7894843380998106</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7832488857745876</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>82.42130122232891</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.443894782437322</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8242130122232891</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8175636071242864</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>70.1545861123366</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.04825410298037</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7015458611233661</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6921590864239663</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.41504684296578</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3365854912825549</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8941504684296577</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8833932682990087</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>71.45373229872231</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8165480497914055</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7145373229872231</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7041604617911185</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>73.93783683249856</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6792488027984898</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7393783683249855</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7343405996199462</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>71.48798865042086</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.048377610618869</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7148798865042085</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6894890265012745</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.27259751381932</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4306463902563943</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8227259751381932</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.820525201725301</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>80.862204690352</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7222674876356905</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8086220469035199</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8055177443386826</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>71.5127293488698</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7751946164915958</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.715127293488698</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7093821801598299</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.08849557522123</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2693779900631246</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9008849557522124</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9002806051091978</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>89.2682462651061</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2784990811007447</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.892682462651061</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8933878785174002</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.16224188790561</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1274307384119311</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.951622418879056</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9507456569145216</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>79.28418642606481</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.604682537002414</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7928418642606482</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7859844277044391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>72.72320694815699</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.658056663411359</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7272320694815699</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.722216582252748</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>68.66538637877491</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7970579546565811</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6866538637877491</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6806642537195255</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.59863839652591</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4371929770956437</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8259863839652593</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8231856903760896</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>82.2762307632419</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4610985914245248</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8227623076324189</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8194181248235722</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>71.44551423455219</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8611333289979181</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.714455142345522</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7060999946856921</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.05378074204793</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.402090910077095</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8705378074204795</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8590575124016848</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>69.87499891867576</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.823218187255164</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6987499891867577</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6894217529643216</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>69.99645325651605</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7040377488980691</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6999645325651607</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6988707793555085</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>75.84641735655153</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6641733430946867</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7584641735655152</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7461166647863984</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>78.70777428870493</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5449997282975043</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7870777428870492</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7851054623795723</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>74.72772255815362</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9376842698043524</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7472772255815362</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7411473444267733</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>67.47592972257546</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8527556270360946</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6747592972257546</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6636076413636974</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>86.8176195295807</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3786630348612864</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8681761952958071</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.867572397576254</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>88.70241092050969</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2600561368759372</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.887024109205097</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8858372039216598</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.04614226766668</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1670639034865114</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9404614226766668</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9400235010185354</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>78.06388175214896</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5966188270181818</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7806388175214894</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7752229937368023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>62.88627064247961</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9112737520287434</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.628862706424796</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6181188889060322</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>59.54125900743086</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.928235631560286</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5954125900743086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5736581661358534</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>64.25444856789419</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7953491133948167</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6425444856789418</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6389283744123972</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>68.90898710196456</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8580578794082007</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6890898710196455</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6787219639049865</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>65.96311386776702</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.134419156238437</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6596311386776702</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6516672499574182</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>79.89740395678163</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6134161489550024</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7989740395678163</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7903637480487309</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52.73073296481804</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.046957064668338</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5273073296481804</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5126510964421465</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54.84476509312365</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.097932043671608</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5484476509312365</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5438468822230165</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59.40492564814574</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.103158794840177</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5940492564814575</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5731326300638816</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.3277104473222</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8478809833526612</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6332771044732221</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.63266512371294</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>66.06276870907188</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.018892340362072</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6606276870907187</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.660445277483912</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>47.3011012205988</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.085266750057538</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.473011012205988</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4233774523588638</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>79.31106670472928</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.527778813491265</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7931106670472928</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.790647325215257</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>81.187207501795</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5060919461383795</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.81187207501795</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7887219647002108</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>88.63796399622834</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3546338004991412</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8863796399622833</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.883238695298342</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>66.28398169534339</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8552896145777777</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.662839816953434</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6506789892575991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>52.45815275218644</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.137338817119598</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5245815275218644</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.501295129836952</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56.54192510315833</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9087700545787811</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5654192510315833</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5386307538764934</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>56.12167925328074</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9170386408766109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5612167925328073</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5499957827463923</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>52.11264803328748</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.103451385100683</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5211264803328748</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.515975994721553</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>52.40365401084784</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.372583758582671</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5240365401084784</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4737879475240391</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>75.01673889912543</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6286487519741059</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7501673889912542</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7400695617746862</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>31.60624226853174</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.23651695450147</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3160624226853174</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2689222238506517</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>49.19661934791823</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.206450300415357</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4919661934791823</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4670763839754871</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>43.94172959973702</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.362715419133504</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4394172959973702</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4228672182608639</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.25806451612904</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9160596184432507</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6225806451612903</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6111576039539669</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>53.93602020778726</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.251402165989081</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5393602020778727</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5266415837377567</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>41.74145105061463</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.188462194800377</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4174145105061463</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3906735791341019</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>66.61571466881202</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7351761137445767</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6661571466881201</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6631993001172942</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>66.61952093011186</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.699916568522652</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6661952093011185</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6425729777988973</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>81.36618828882602</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5322024866938591</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8136618828882602</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8114066936234909</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>56.12908992869028</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.013115548698438</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5612908992869028</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5416181823288417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_DDPCC.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_DDPCC.xlsx
@@ -10,6 +10,9 @@
     <sheet name="selection_rate_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="selection_rate_0.75" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="selection_rate_0.5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="selection_rate_0.4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="selection_rate_0.3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="selection_rate_0.25" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1472,1054 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.30088495575221</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2328955797073528</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.923008849557522</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9150918521296438</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>90.50320504502635</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2691822717896381</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9050320504502635</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9029207179928918</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.74926253687315</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1505620582822909</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9474926253687315</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9465070877401327</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.35120546025485</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2929723733318194</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8935120546025483</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8897411778837823</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.54277286135694</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5015956476291952</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8454277286135692</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8353316114981496</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.62241887905604</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2426495529032157</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9162241887905604</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9132660867315877</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.72861356932154</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3829485341557302</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8772861356932153</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8711376436099882</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.20943952802359</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2262750473135384</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9120943952802361</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9097474800906695</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.26548672566371</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2796139711048454</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.902654867256637</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8948159838891503</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.4424778761062</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2736599413685326</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9044247787610619</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8979484497697017</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.48377581120944</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6672637888763954</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8448377581120944</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8318958350343453</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.00884955752213</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6257994544415851</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8300884955752214</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8132163954270479</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>93.59882005899705</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1726582078139472</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9359882005899705</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9351489206209861</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.05032050450264</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.08202477842955887</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9705032050450264</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9705785709418862</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.98230088495575</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1592863349602946</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9398230088495575</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9356496099445852</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.32265561697477</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3039591694738626</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9032265561697476</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8975331615536366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.90091609789013</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.357979857448178</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8590091609789011</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8579013553901784</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81.69421880812118</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4727231989769886</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8169421880812118</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8159935697880858</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.74336283185841</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1991434393887175</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9274336283185841</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9272735407401234</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.20629936245123</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2883338084754845</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8820629936245122</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8793487299257443</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.83185840707965</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5050946967618074</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8283185840707965</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8211585485171773</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.4424778761062</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2879024061626599</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9044247787610619</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9006670448662814</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80.59048953710672</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5800077131677729</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8059048953710672</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8000332467922041</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82.8023598820059</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4732211193845918</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8280235988200589</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8261591013688303</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.74665870812031</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4561658550247861</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.837466587081203</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8284375508444528</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.02359882005899</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3397349011599241</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.88023598820059</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8762342690894303</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.80825958702066</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5701176127460107</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8480825958702065</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8408547289358095</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.23494147873251</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7246176683052908</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7923494147873251</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7704271710033638</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.79646017699115</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2493058273995606</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9079646017699116</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9077810832344252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.71091445427729</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1990950112083131</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9171091445427729</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9153778915950124</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.16224188790561</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1399127580962765</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9516224188790561</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9514545140026787</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.57967052771505</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3895570582470908</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8657967052771506</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8612734897395866</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>71.35546155243557</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7091821691409375</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7135546155243557</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7024442457325494</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>72.43047085182397</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.733564576258262</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7243047085182398</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7102537546334547</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.71454770369986</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4261347199479739</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8171454770369986</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8152216124550374</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>82.60867308540732</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3982129047314326</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8260867308540731</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8245906050385315</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>78.69125165442608</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6421325228836697</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7869125165442608</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7806640068836176</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.11799410029498</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3323759050806984</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9011799410029498</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8906371731807642</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>76.58111229335893</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6365280622499995</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7658111229335894</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7586428903236218</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>71.12596129724305</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8354538874079784</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7112596129724306</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6951031329653757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>80.05934307390203</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6444321439291041</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8005934307390202</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7851196184564959</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.39579927161999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.433138781466793</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8439579927161999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8409915256412501</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>81.20961253990086</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6718691239405112</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8120961253990087</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8021407859278765</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>69.68745404372009</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.811534372655054</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.696874540437201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6766064864410454</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87.02064896755162</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3939970349019859</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8702064896755163</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8679172351509921</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90.02949852507375</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2270910490278766</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9002949852507374</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8989721593101055</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90.27828960458136</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2649591159754588</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9027828960458135</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8969627519624176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80.48707457100264</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5440404246398491</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8048707457100261</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7964178656068757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>